--- a/Frontend/Images/Classification.xlsx
+++ b/Frontend/Images/Classification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbake\Desktop\Programming\GitHub\Batpedia\GUI\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbake\Desktop\Programming\GitHub\Batpedia\Frontend\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C622A-7F16-4D06-9F1A-7F619946CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6525EB-09E4-41DD-83C7-83470B89180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="7266" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -204,13 +204,13 @@
     <t>Rhinolophus capensis</t>
   </si>
   <si>
-    <t>rhinolophus sinicus</t>
-  </si>
-  <si>
     <t>Rhinolophus fumigatus</t>
   </si>
   <si>
     <t>Glauconycteris superba</t>
+  </si>
+  <si>
+    <t>Rhinolophus sinicus</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -674,7 +674,7 @@
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -734,7 +734,7 @@
         <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
@@ -751,7 +751,7 @@
         <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Frontend/Images/Classification.xlsx
+++ b/Frontend/Images/Classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zbake\Desktop\Programming\GitHub\Batpedia\Frontend\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6525EB-09E4-41DD-83C7-83470B89180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F45707-E6AA-43ED-8373-4DBAC24D4A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="7266" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Yango</t>
   </si>
@@ -211,6 +211,33 @@
   </si>
   <si>
     <t>Rhinolophus sinicus</t>
+  </si>
+  <si>
+    <t>Cistugidae</t>
+  </si>
+  <si>
+    <t>Molossidae</t>
+  </si>
+  <si>
+    <t>Nycteridae</t>
+  </si>
+  <si>
+    <t>Cistugo lesueuri</t>
+  </si>
+  <si>
+    <t>Cheiromeles torquatus</t>
+  </si>
+  <si>
+    <t>Cynomops abrasus</t>
+  </si>
+  <si>
+    <t>Eumops bonariensis</t>
+  </si>
+  <si>
+    <t>Nycteris tragata</t>
+  </si>
+  <si>
+    <t>Nycteris nana</t>
   </si>
 </sst>
 </file>
@@ -530,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -699,6 +726,15 @@
       <c r="H11" t="s">
         <v>18</v>
       </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
@@ -719,6 +755,15 @@
       <c r="H12" t="s">
         <v>58</v>
       </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
@@ -736,6 +781,12 @@
       <c r="H13" t="s">
         <v>61</v>
       </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
@@ -752,6 +803,9 @@
       </c>
       <c r="H14" t="s">
         <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
